--- a/documentation/Reports Parameters To fix.xlsx
+++ b/documentation/Reports Parameters To fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65ACE87-4ADA-4164-B19B-4BA7DCEA2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF924C-2805-4C35-AEEC-E6351FEF0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2835" windowWidth="23340" windowHeight="13395" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>Blending</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>Plant Througput</t>
+  </si>
+  <si>
+    <t>PlantThroughputDAS</t>
   </si>
 </sst>
 </file>
@@ -483,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E85BC6-E6C1-4D18-AFEE-3CD8B9589C59}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -491,113 +506,171 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Reports Parameters To fix.xlsx
+++ b/documentation/Reports Parameters To fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF924C-2805-4C35-AEEC-E6351FEF0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B21B5-063A-4D7B-B53B-DF4A1B2E1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
+    <workbookView xWindow="5700" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,60 @@
   </si>
   <si>
     <t>PlantThroughputDAS</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Bulk Trailer Check</t>
+  </si>
+  <si>
+    <t>BulkCleanTrailer</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Bin Stock Level</t>
+  </si>
+  <si>
+    <t>BinStockLevels</t>
+  </si>
+  <si>
+    <t>All Stock</t>
+  </si>
+  <si>
+    <t>StockTransactionHistory</t>
+  </si>
+  <si>
+    <t>Traceability</t>
+  </si>
+  <si>
+    <t>GrnId Trace</t>
+  </si>
+  <si>
+    <t>StockTraceByGrnid</t>
+  </si>
+  <si>
+    <t>Run Trace</t>
+  </si>
+  <si>
+    <t>StockTraceByRunid</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Bin Check</t>
+  </si>
+  <si>
+    <t>BinStockCheckReport</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Formula Header</t>
   </si>
 </sst>
 </file>
@@ -498,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E85BC6-E6C1-4D18-AFEE-3CD8B9589C59}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,20 +711,134 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Reports Parameters To fix.xlsx
+++ b/documentation/Reports Parameters To fix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B21B5-063A-4D7B-B53B-DF4A1B2E1D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FF5D6-16AD-41BE-8FDA-F8A24FB53820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
+    <workbookView xWindow="-21405" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -95,15 +96,6 @@
     <t>DAS</t>
   </si>
   <si>
-    <t>Intake</t>
-  </si>
-  <si>
-    <t>Plant Througput</t>
-  </si>
-  <si>
-    <t>PlantThroughputDAS</t>
-  </si>
-  <si>
     <t>Bulk</t>
   </si>
   <si>
@@ -156,6 +148,84 @@
   </si>
   <si>
     <t>Formula Header</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>RDL</t>
+  </si>
+  <si>
+    <t>Report.SSRS_BatchReport</t>
+  </si>
+  <si>
+    <t>Stored Proc</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>dstDefaultDates</t>
+  </si>
+  <si>
+    <t>Report.SSRS_GetDefaultDates</t>
+  </si>
+  <si>
+    <t>SPROC</t>
+  </si>
+  <si>
+    <t>dstHourInterval</t>
+  </si>
+  <si>
+    <t>Report.SSRS_GetTimeIntervals</t>
+  </si>
+  <si>
+    <t>@DateInterval</t>
+  </si>
+  <si>
+    <t>dstMinuteInterval</t>
+  </si>
+  <si>
+    <t>Start Hour</t>
+  </si>
+  <si>
+    <t>MinDate</t>
+  </si>
+  <si>
+    <t>MaxDate</t>
+  </si>
+  <si>
+    <t>FinalStartDate</t>
+  </si>
+  <si>
+    <t>=CDate(Year(Parameters!MinDate.Value).ToString()  + "/" + Month(Parameters!MinDate.Value).ToString()  + "/" + Day(Parameters!MinDate.Value).ToString() + " "  + Parameters!StartHour.Value.ToString() + ":" + Parameters!StartMinute.Value.ToString())</t>
+  </si>
+  <si>
+    <t>FinalEndDate</t>
+  </si>
+  <si>
+    <t>=CDate(Year(Parameters!MaxDate.Value).ToString()  + "/" + Month(Parameters!MaxDate.Value).ToString()  + "/" + Day(Parameters!MaxDate.Value).ToString() + " "  + Parameters!EndHour.Value.ToString() + ":" + Parameters!EndMinute.Value.ToString())</t>
+  </si>
+  <si>
+    <t>Start Minute</t>
+  </si>
+  <si>
+    <t>End Hour</t>
+  </si>
+  <si>
+    <t>EndMinute</t>
   </si>
 </sst>
 </file>
@@ -204,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E85BC6-E6C1-4D18-AFEE-3CD8B9589C59}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,9 +638,11 @@
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -586,30 +661,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -617,19 +716,29 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -638,18 +747,28 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -658,18 +777,28 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -678,38 +807,58 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -726,36 +875,56 @@
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -766,36 +935,56 @@
       <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -806,10 +995,20 @@
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
@@ -820,25 +1019,124 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A1FB8-9603-4C9D-A087-644B5D049CEB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="225.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Reports Parameters To fix.xlsx
+++ b/documentation/Reports Parameters To fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FF5D6-16AD-41BE-8FDA-F8A24FB53820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6CBCD8-1768-4E31-A728-EA0594B89C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21405" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -226,13 +226,16 @@
   </si>
   <si>
     <t>EndMinute</t>
+  </si>
+  <si>
+    <t>SiteId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +250,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +271,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -271,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,8 +307,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E85BC6-E6C1-4D18-AFEE-3CD8B9589C59}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +722,7 @@
       <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -732,8 +752,8 @@
       <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>38</v>
+      <c r="J3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -762,8 +782,8 @@
       <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>38</v>
+      <c r="J4" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -792,8 +812,8 @@
       <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,8 +842,8 @@
       <c r="I6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>38</v>
+      <c r="J6" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -852,8 +872,8 @@
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>38</v>
+      <c r="J7" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -882,8 +902,8 @@
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>38</v>
+      <c r="J8" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,14 +1050,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07A1FB8-9603-4C9D-A087-644B5D049CEB}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="225.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1123,6 +1143,11 @@
         <v>62</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>

--- a/documentation/Reports Parameters To fix.xlsx
+++ b/documentation/Reports Parameters To fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6CBCD8-1768-4E31-A728-EA0594B89C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DF2D2-7549-4849-BE67-E45A174323B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B89A7C9-0650-41F8-B50F-DD634F4F0D32}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -135,9 +135,6 @@
     <t>StockTraceByRunid</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Bin Check</t>
   </si>
   <si>
@@ -229,13 +226,16 @@
   </si>
   <si>
     <t>SiteId</t>
+  </si>
+  <si>
+    <t>FormulationHeaders.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +256,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7D353B"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -290,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,6 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -648,7 +655,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="D9:J9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -714,16 +721,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,13 +754,13 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -777,13 +784,13 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,13 +814,13 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,13 +844,13 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -867,13 +874,13 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,13 +904,13 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -927,13 +934,13 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -957,13 +964,13 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -987,13 +994,13 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,26 +1011,26 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1034,10 +1041,26 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1065,46 +1088,46 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="2">
         <v>23</v>
@@ -1112,27 +1135,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="2">
         <v>59</v>
@@ -1140,28 +1163,28 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
